--- a/assets/sp_cetesb_infoaguas/excel/VEME04200.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/VEME04200.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,18 +480,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>2.89000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.89000000</t>
+          <t>0.16000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,13 +532,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.16000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,13 +558,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.08000000</t>
+          <t>0.60000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -584,13 +584,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>5.55000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -610,17 +610,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DQO</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.08000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -692,18 +688,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.60000000</t>
+          <t>21.00000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -718,13 +714,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.00000000</t>
+          <t>22.50000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -744,18 +740,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.55000000</t>
+          <t>292.00000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -770,18 +766,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.50000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -796,18 +792,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Coliformes Termotolerantes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>20000.00000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -822,18 +818,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>DQO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18.90000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -848,18 +848,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Coliformes Termotolerantes</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20000.00000000</t>
+          <t>18.90000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -874,18 +874,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.80000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -900,18 +900,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>292.00000000</t>
+          <t>7.80000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -926,18 +926,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Coliformes Termotolerantes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24.20000000</t>
+          <t>860.00000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -952,13 +952,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.20000000</t>
+          <t>4.24000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -978,18 +978,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>4.24000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1004,13 +1004,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.17000000</t>
+          <t>7.20000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1030,18 +1030,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11.10000000</t>
+          <t>0.54000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.54000000</t>
+          <t>0.14000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1082,18 +1082,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>174.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1108,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.24000000</t>
+          <t>174.00000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1134,18 +1134,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>DQO</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.24000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1186,13 +1190,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.14000000</t>
+          <t>0.17000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1212,18 +1216,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Coliformes Termotolerantes</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>860.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1238,22 +1242,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DQO</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>7.90000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1268,18 +1268,18 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1294,18 +1294,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>11.10000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1320,18 +1320,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.90000000</t>
+          <t>309.00000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1346,18 +1346,18 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>309.00000000</t>
+          <t>24.20000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1372,18 +1372,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.54000000</t>
+          <t>7.04000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1398,18 +1398,18 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Coliformes Termotolerantes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.04000000</t>
+          <t>196.00000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1424,18 +1424,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>8.50000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1450,18 +1450,18 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>21.00000000</t>
+          <t>0.54000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1476,18 +1476,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Coliformes Termotolerantes</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>196.00000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1502,13 +1502,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20.30000000</t>
+          <t>21.00000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1528,18 +1528,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>254.00000000</t>
+          <t>288.00000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1554,18 +1554,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>288.00000000</t>
+          <t>254.00000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1580,13 +1580,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>DQO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1606,13 +1610,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1658,17 +1662,13 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DQO</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1688,22 +1688,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>20.30000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1718,18 +1714,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1744,18 +1740,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1770,16 +1770,1238 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>8.50000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>7.62000000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3.43000000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14.50000000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>11.30000000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>154.00000000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>212.00000000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.00000000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.70000000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>13.00000000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.16000000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.45000000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.07000000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>5.04000000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>18.50000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.21000000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>315.00000000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>19.30000000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>mg Pt/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.00080000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>132.00000000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>6800.00000000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>31.54000000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.95000000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.17000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.14000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>12.60000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.53000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.20000000</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1.40000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>32.10000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>VEME04200</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44497.35625</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>7.80000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
